--- a/data/metadata/mapping-horas-trabajadas.xlsx
+++ b/data/metadata/mapping-horas-trabajadas.xlsx
@@ -11,20 +11,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>01-10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/01-10</t>
   </si>
   <si>
-    <t>11-20</t>
+    <t>41-50 horas</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/41-50-horas</t>
+  </si>
+  <si>
+    <t>11-20 horas</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/11-20-horas</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/11-20</t>
   </si>
   <si>
+    <t>Más de 50</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/mas-de-50</t>
+  </si>
+  <si>
+    <t>21-30 horas</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/21-30-horas</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/41-50</t>
+  </si>
+  <si>
+    <t>Más de 50 horas</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/mas-de-50-horas</t>
+  </si>
+  <si>
     <t>21-30</t>
   </si>
   <si>
@@ -37,16 +67,16 @@
     <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/31-40</t>
   </si>
   <si>
-    <t>41-50</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/41-50</t>
-  </si>
-  <si>
-    <t>Más de 50</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/mas-de-50</t>
+    <t>31-40 horas</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/31-40-horas</t>
+  </si>
+  <si>
+    <t>01-10 horas</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/horas-trabajadas/01-10-horas</t>
   </si>
 </sst>
 </file>
@@ -74,23 +104,28 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -100,71 +135,112 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1">
+        <v>42379.0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>42694.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -174,7 +250,13 @@
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
     <hyperlink r:id="rId6" ref="B6"/>
+    <hyperlink r:id="rId7" ref="B7"/>
+    <hyperlink r:id="rId8" ref="B8"/>
+    <hyperlink r:id="rId9" ref="B9"/>
+    <hyperlink r:id="rId10" ref="B10"/>
+    <hyperlink r:id="rId11" ref="B11"/>
+    <hyperlink r:id="rId12" ref="B12"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>